--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1709,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A150"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:A150"/>
     </sheetView>
   </sheetViews>
@@ -2480,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
@@ -3256,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
